--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H2">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I2">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J2">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N2">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O2">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P2">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q2">
-        <v>492.6540564234857</v>
+        <v>653.9623877027329</v>
       </c>
       <c r="R2">
-        <v>492.6540564234857</v>
+        <v>3923.774326216398</v>
       </c>
       <c r="S2">
-        <v>0.0618441256069835</v>
+        <v>0.07256704704007635</v>
       </c>
       <c r="T2">
-        <v>0.0618441256069835</v>
+        <v>0.05188390137494964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H3">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I3">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J3">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N3">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O3">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P3">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q3">
-        <v>1021.716759678674</v>
+        <v>1052.319987562931</v>
       </c>
       <c r="R3">
-        <v>1021.716759678674</v>
+        <v>6313.919925377583</v>
       </c>
       <c r="S3">
-        <v>0.1282587219093399</v>
+        <v>0.1167708655339424</v>
       </c>
       <c r="T3">
-        <v>0.1282587219093399</v>
+        <v>0.08348869518535942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H4">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I4">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J4">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N4">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O4">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P4">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q4">
-        <v>2.179157460672746</v>
+        <v>3.498525787441666</v>
       </c>
       <c r="R4">
-        <v>2.179157460672746</v>
+        <v>20.99115472465</v>
       </c>
       <c r="S4">
-        <v>0.0002735552178208267</v>
+        <v>0.000388214506158423</v>
       </c>
       <c r="T4">
-        <v>0.0002735552178208267</v>
+        <v>0.000277565147975838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.4935243023309</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H5">
-        <v>20.4935243023309</v>
+        <v>65.250653</v>
       </c>
       <c r="I5">
-        <v>0.1350143981120275</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J5">
-        <v>0.1350143981120275</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N5">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O5">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P5">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q5">
-        <v>349.3888420528293</v>
+        <v>478.1557629237697</v>
       </c>
       <c r="R5">
-        <v>349.3888420528293</v>
+        <v>4303.401866313927</v>
       </c>
       <c r="S5">
-        <v>0.0438596762816863</v>
+        <v>0.05305863516472661</v>
       </c>
       <c r="T5">
-        <v>0.0438596762816863</v>
+        <v>0.0569037002247545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.4935243023309</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H6">
-        <v>20.4935243023309</v>
+        <v>65.250653</v>
       </c>
       <c r="I6">
-        <v>0.1350143981120275</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J6">
-        <v>0.1350143981120275</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N6">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O6">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P6">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q6">
-        <v>724.5985918833958</v>
+        <v>769.4217220361129</v>
       </c>
       <c r="R6">
-        <v>724.5985918833958</v>
+        <v>6924.795498325016</v>
       </c>
       <c r="S6">
-        <v>0.09096071725543563</v>
+        <v>0.08537901161684476</v>
       </c>
       <c r="T6">
-        <v>0.09096071725543563</v>
+        <v>0.09156627695845104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.4935243023309</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H7">
-        <v>20.4935243023309</v>
+        <v>65.250653</v>
       </c>
       <c r="I7">
-        <v>0.1350143981120275</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J7">
-        <v>0.1350143981120275</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N7">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O7">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P7">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q7">
-        <v>1.545452213187011</v>
+        <v>2.558006849413889</v>
       </c>
       <c r="R7">
-        <v>1.545452213187011</v>
+        <v>23.022061644725</v>
       </c>
       <c r="S7">
-        <v>0.0001940045749055398</v>
+        <v>0.0002838496630094182</v>
       </c>
       <c r="T7">
-        <v>0.0001940045749055398</v>
+        <v>0.0003044197439802115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.7407743079077</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H8">
-        <v>28.7407743079077</v>
+        <v>93.011927</v>
       </c>
       <c r="I8">
-        <v>0.1893485125940211</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J8">
-        <v>0.1893485125940211</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N8">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O8">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P8">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q8">
-        <v>489.9940931096684</v>
+        <v>681.5899438691437</v>
       </c>
       <c r="R8">
-        <v>489.9940931096684</v>
+        <v>6134.309494822293</v>
       </c>
       <c r="S8">
-        <v>0.06151021359886176</v>
+        <v>0.07563274348627873</v>
       </c>
       <c r="T8">
-        <v>0.06151021359886176</v>
+        <v>0.08111371408550884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.7407743079077</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H9">
-        <v>28.7407743079077</v>
+        <v>93.011927</v>
       </c>
       <c r="I9">
-        <v>0.1893485125940211</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J9">
-        <v>0.1893485125940211</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N9">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O9">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P9">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q9">
-        <v>1016.200253598145</v>
+        <v>1096.776717962305</v>
       </c>
       <c r="R9">
-        <v>1016.200253598145</v>
+        <v>9870.990461660744</v>
       </c>
       <c r="S9">
-        <v>0.1275662207708479</v>
+        <v>0.1217040141473851</v>
       </c>
       <c r="T9">
-        <v>0.1275662207708479</v>
+        <v>0.1305236879103912</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.7407743079077</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H10">
-        <v>28.7407743079077</v>
+        <v>93.011927</v>
       </c>
       <c r="I10">
-        <v>0.1893485125940211</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J10">
-        <v>0.1893485125940211</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N10">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O10">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P10">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q10">
-        <v>2.167391640773684</v>
+        <v>3.646325904863889</v>
       </c>
       <c r="R10">
-        <v>2.167391640773684</v>
+        <v>32.816933143775</v>
       </c>
       <c r="S10">
-        <v>0.0002720782243114478</v>
+        <v>0.0004046151712045947</v>
       </c>
       <c r="T10">
-        <v>0.0002720782243114478</v>
+        <v>0.0004339369140787928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.5696357641836</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H11">
-        <v>54.5696357641836</v>
+        <v>164.044102</v>
       </c>
       <c r="I11">
-        <v>0.3595129085267109</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J11">
-        <v>0.3595129085267109</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N11">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O11">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P11">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q11">
-        <v>930.3437305180463</v>
+        <v>1202.112609431735</v>
       </c>
       <c r="R11">
-        <v>930.3437305180463</v>
+        <v>10819.01348488562</v>
       </c>
       <c r="S11">
-        <v>0.116788431512212</v>
+        <v>0.1333926291732773</v>
       </c>
       <c r="T11">
-        <v>0.116788431512212</v>
+        <v>0.1430593561086209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.5696357641836</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H12">
-        <v>54.5696357641836</v>
+        <v>164.044102</v>
       </c>
       <c r="I12">
-        <v>0.3595129085267109</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J12">
-        <v>0.3595129085267109</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N12">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O12">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P12">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q12">
-        <v>1929.442718147795</v>
+        <v>1934.372908891927</v>
       </c>
       <c r="R12">
-        <v>1929.442718147795</v>
+        <v>17409.35618002735</v>
       </c>
       <c r="S12">
-        <v>0.2422078865621688</v>
+        <v>0.2146480172441012</v>
       </c>
       <c r="T12">
-        <v>0.2422078865621688</v>
+        <v>0.2302031778460883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.5696357641836</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H13">
-        <v>54.5696357641836</v>
+        <v>164.044102</v>
       </c>
       <c r="I13">
-        <v>0.3595129085267109</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J13">
-        <v>0.3595129085267109</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N13">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O13">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P13">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q13">
-        <v>4.115190882759708</v>
+        <v>6.430984476461111</v>
       </c>
       <c r="R13">
-        <v>4.115190882759708</v>
+        <v>57.87886028815</v>
       </c>
       <c r="S13">
-        <v>0.0005165904523301764</v>
+        <v>0.0007136152809287996</v>
       </c>
       <c r="T13">
-        <v>0.0005165904523301764</v>
+        <v>0.0007653297129808603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.2969937086613</v>
+        <v>17.571287</v>
       </c>
       <c r="H14">
-        <v>17.2969937086613</v>
+        <v>52.713861</v>
       </c>
       <c r="I14">
-        <v>0.1139551772682073</v>
+        <v>0.1120685440694613</v>
       </c>
       <c r="J14">
-        <v>0.1139551772682073</v>
+        <v>0.1201899524281925</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N14">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O14">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P14">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q14">
-        <v>294.8920114329424</v>
+        <v>386.286347557511</v>
       </c>
       <c r="R14">
-        <v>294.8920114329424</v>
+        <v>3476.577128017599</v>
       </c>
       <c r="S14">
-        <v>0.03701854954357277</v>
+        <v>0.04286432993893732</v>
       </c>
       <c r="T14">
-        <v>0.03701854954357277</v>
+        <v>0.04597063180399708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.2969937086613</v>
+        <v>17.571287</v>
       </c>
       <c r="H15">
-        <v>17.2969937086613</v>
+        <v>52.713861</v>
       </c>
       <c r="I15">
-        <v>0.1139551772682073</v>
+        <v>0.1120685440694613</v>
       </c>
       <c r="J15">
-        <v>0.1139551772682073</v>
+        <v>0.1201899524281925</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N15">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O15">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P15">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q15">
-        <v>611.5774475982352</v>
+        <v>621.5905564315548</v>
       </c>
       <c r="R15">
-        <v>611.5774475982352</v>
+        <v>5594.315007883992</v>
       </c>
       <c r="S15">
-        <v>0.07677288351636227</v>
+        <v>0.06897490130386497</v>
       </c>
       <c r="T15">
-        <v>0.07677288351636227</v>
+        <v>0.07397338990424036</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.2969937086613</v>
+        <v>17.571287</v>
       </c>
       <c r="H16">
-        <v>17.2969937086613</v>
+        <v>52.713861</v>
       </c>
       <c r="I16">
-        <v>0.1139551772682073</v>
+        <v>0.1120685440694613</v>
       </c>
       <c r="J16">
-        <v>0.1139551772682073</v>
+        <v>0.1201899524281925</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N16">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O16">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P16">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q16">
-        <v>1.304396296809329</v>
+        <v>2.066529778591667</v>
       </c>
       <c r="R16">
-        <v>1.304396296809329</v>
+        <v>18.598768007325</v>
       </c>
       <c r="S16">
-        <v>0.000163744208272218</v>
+        <v>0.0002293128266589962</v>
       </c>
       <c r="T16">
-        <v>0.000163744208272218</v>
+        <v>0.0002459307199550701</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.78997169000015</v>
+        <v>2.0364265</v>
       </c>
       <c r="H17">
-        <v>1.78997169000015</v>
+        <v>4.072853</v>
       </c>
       <c r="I17">
-        <v>0.01179260076488901</v>
+        <v>0.0129881979026049</v>
       </c>
       <c r="J17">
-        <v>0.01179260076488901</v>
+        <v>0.009286286358668003</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N17">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O17">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P17">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q17">
-        <v>30.51676846062865</v>
+        <v>44.7687044639545</v>
       </c>
       <c r="R17">
-        <v>30.51676846062865</v>
+        <v>268.612226783727</v>
       </c>
       <c r="S17">
-        <v>0.003830848111754999</v>
+        <v>0.00496776686832304</v>
       </c>
       <c r="T17">
-        <v>0.003830848111754999</v>
+        <v>0.003551848073788504</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.78997169000015</v>
+        <v>2.0364265</v>
       </c>
       <c r="H18">
-        <v>1.78997169000015</v>
+        <v>4.072853</v>
       </c>
       <c r="I18">
-        <v>0.01179260076488901</v>
+        <v>0.0129881979026049</v>
       </c>
       <c r="J18">
-        <v>0.01179260076488901</v>
+        <v>0.009286286358668003</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N18">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O18">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P18">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q18">
-        <v>63.28881977307003</v>
+        <v>72.03931512056934</v>
       </c>
       <c r="R18">
-        <v>63.28881977307003</v>
+        <v>432.235890723416</v>
       </c>
       <c r="S18">
-        <v>0.007944807656671302</v>
+        <v>0.007993854795614866</v>
       </c>
       <c r="T18">
-        <v>0.007944807656671302</v>
+        <v>0.005715436837223043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.78997169000015</v>
+        <v>2.0364265</v>
       </c>
       <c r="H19">
-        <v>1.78997169000015</v>
+        <v>4.072853</v>
       </c>
       <c r="I19">
-        <v>0.01179260076488901</v>
+        <v>0.0129881979026049</v>
       </c>
       <c r="J19">
-        <v>0.01179260076488901</v>
+        <v>0.009286286358668003</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N19">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O19">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P19">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q19">
-        <v>0.1349848698077856</v>
+        <v>0.2395007266208333</v>
       </c>
       <c r="R19">
-        <v>0.1349848698077856</v>
+        <v>1.437004359725</v>
       </c>
       <c r="S19">
-        <v>1.69449964627086E-05</v>
+        <v>2.657623866699613E-05</v>
       </c>
       <c r="T19">
-        <v>1.69449964627086E-05</v>
+        <v>1.900144765645543E-05</v>
       </c>
     </row>
   </sheetData>
